--- a/regions_template.xlsx
+++ b/regions_template.xlsx
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t>Presumed</t>
+  </si>
+  <si>
+    <t>ThresholdAllOut</t>
+  </si>
+  <si>
+    <t>ThresholdSuspected</t>
+  </si>
+  <si>
+    <t>ThresholdTested</t>
+  </si>
+  <si>
+    <t>ThresholdConfirmed</t>
+  </si>
+  <si>
+    <t>ThresholdTreated</t>
+  </si>
+  <si>
+    <t>ThresholdPresumed</t>
   </si>
   <si>
     <t>January</t>
@@ -1400,7 +1418,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1410,6 +1428,12 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15">
@@ -1440,6 +1464,24 @@
       <c r="I1" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
@@ -1449,7 +1491,7 @@
         <v>2023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1">
         <v>764</v>
@@ -1468,6 +1510,30 @@
       </c>
       <c r="I2" s="1">
         <v>51</v>
+      </c>
+      <c r="J2" s="1">
+        <f ca="1" t="shared" ref="J2:L121" si="0">RANDBETWEEN(56,2000)</f>
+        <v>767</v>
+      </c>
+      <c r="K2" s="1">
+        <f ca="1" t="shared" ref="K2:K121" si="1">RANDBETWEEN(56,2000)</f>
+        <v>1228</v>
+      </c>
+      <c r="L2" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="M2" s="1">
+        <f ca="1" t="shared" ref="M2:M121" si="2">RANDBETWEEN(56,2000)</f>
+        <v>526</v>
+      </c>
+      <c r="N2" s="1">
+        <f ca="1" t="shared" ref="N2:O121" si="3">RANDBETWEEN(56,2000)</f>
+        <v>1070</v>
+      </c>
+      <c r="O2" s="1">
+        <f ca="1" t="shared" ref="O2:O121" si="4">RANDBETWEEN(56,2000)</f>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
@@ -1478,7 +1544,7 @@
         <v>2023</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>695</v>
@@ -1497,6 +1563,30 @@
       </c>
       <c r="I3" s="1">
         <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="K3" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1773</v>
+      </c>
+      <c r="L3" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+      <c r="M3" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1459</v>
+      </c>
+      <c r="N3" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="O3" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1918</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15">
@@ -1507,7 +1597,7 @@
         <v>2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1">
         <v>724</v>
@@ -1526,6 +1616,30 @@
       </c>
       <c r="I4" s="1">
         <v>44</v>
+      </c>
+      <c r="J4" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1456</v>
+      </c>
+      <c r="K4" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1974</v>
+      </c>
+      <c r="L4" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="M4" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="N4" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="O4" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1448</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15">
@@ -1536,7 +1650,7 @@
         <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1">
         <v>910</v>
@@ -1555,6 +1669,30 @@
       </c>
       <c r="I5" s="1">
         <v>55</v>
+      </c>
+      <c r="J5" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1663</v>
+      </c>
+      <c r="K5" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1571</v>
+      </c>
+      <c r="L5" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M5" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1133</v>
+      </c>
+      <c r="N5" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1463</v>
+      </c>
+      <c r="O5" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>216</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15">
@@ -1565,7 +1703,7 @@
         <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1">
         <v>830</v>
@@ -1584,6 +1722,30 @@
       </c>
       <c r="I6" s="1">
         <v>24</v>
+      </c>
+      <c r="J6" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1759</v>
+      </c>
+      <c r="K6" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1228</v>
+      </c>
+      <c r="L6" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>565</v>
+      </c>
+      <c r="M6" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="N6" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="O6" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>614</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15">
@@ -1594,7 +1756,7 @@
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>1495</v>
@@ -1613,6 +1775,30 @@
       </c>
       <c r="I7" s="1">
         <v>98</v>
+      </c>
+      <c r="J7" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+      <c r="K7" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="L7" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1679</v>
+      </c>
+      <c r="M7" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1655</v>
+      </c>
+      <c r="O7" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>833</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15">
@@ -1623,7 +1809,7 @@
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1">
         <v>1384</v>
@@ -1642,6 +1828,30 @@
       </c>
       <c r="I8" s="1">
         <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>863</v>
+      </c>
+      <c r="K8" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1692</v>
+      </c>
+      <c r="L8" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>841</v>
+      </c>
+      <c r="M8" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1789</v>
+      </c>
+      <c r="N8" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1289</v>
+      </c>
+      <c r="O8" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>720</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15">
@@ -1652,7 +1862,7 @@
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1">
         <v>1149</v>
@@ -1671,6 +1881,30 @@
       </c>
       <c r="I9" s="1">
         <v>39</v>
+      </c>
+      <c r="J9" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K9" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1692</v>
+      </c>
+      <c r="L9" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1416</v>
+      </c>
+      <c r="M9" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="N9" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1055</v>
+      </c>
+      <c r="O9" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1751</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15">
@@ -1681,7 +1915,7 @@
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1">
         <v>969</v>
@@ -1700,6 +1934,30 @@
       </c>
       <c r="I10" s="1">
         <v>28</v>
+      </c>
+      <c r="J10" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1849</v>
+      </c>
+      <c r="K10" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1708</v>
+      </c>
+      <c r="L10" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>904</v>
+      </c>
+      <c r="M10" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1341</v>
+      </c>
+      <c r="N10" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>839</v>
+      </c>
+      <c r="O10" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1447</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15">
@@ -1710,7 +1968,7 @@
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1">
         <v>1600</v>
@@ -1729,6 +1987,30 @@
       </c>
       <c r="I11" s="1">
         <v>64</v>
+      </c>
+      <c r="J11" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="K11" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1338</v>
+      </c>
+      <c r="L11" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="M11" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1443</v>
+      </c>
+      <c r="N11" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>547</v>
+      </c>
+      <c r="O11" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>395</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15">
@@ -1739,7 +2021,7 @@
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1">
         <v>550</v>
@@ -1758,6 +2040,30 @@
       </c>
       <c r="I12" s="1">
         <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="K12" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="L12" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="M12" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1615</v>
+      </c>
+      <c r="N12" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1793</v>
+      </c>
+      <c r="O12" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1161</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15">
@@ -1768,7 +2074,7 @@
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1">
         <v>804</v>
@@ -1787,6 +2093,30 @@
       </c>
       <c r="I13" s="1">
         <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="K13" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1809</v>
+      </c>
+      <c r="L13" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1176</v>
+      </c>
+      <c r="M13" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1868</v>
+      </c>
+      <c r="N13" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1529</v>
+      </c>
+      <c r="O13" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1090</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15">
@@ -1797,7 +2127,7 @@
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1">
         <v>1020</v>
@@ -1816,6 +2146,30 @@
       </c>
       <c r="I14" s="1">
         <v>51</v>
+      </c>
+      <c r="J14" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>740</v>
+      </c>
+      <c r="K14" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="L14" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1517</v>
+      </c>
+      <c r="M14" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="N14" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1301</v>
+      </c>
+      <c r="O14" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>816</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15">
@@ -1826,7 +2180,7 @@
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1">
         <v>864</v>
@@ -1845,6 +2199,30 @@
       </c>
       <c r="I15" s="1">
         <v>33</v>
+      </c>
+      <c r="J15" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1808</v>
+      </c>
+      <c r="K15" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1547</v>
+      </c>
+      <c r="L15" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+      <c r="M15" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1088</v>
+      </c>
+      <c r="N15" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1647</v>
+      </c>
+      <c r="O15" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1426</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15">
@@ -1855,7 +2233,7 @@
         <v>2024</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1">
         <v>559</v>
@@ -1874,6 +2252,30 @@
       </c>
       <c r="I16" s="1">
         <v>41</v>
+      </c>
+      <c r="J16" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="K16" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="L16" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1065</v>
+      </c>
+      <c r="M16" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1534</v>
+      </c>
+      <c r="N16" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1391</v>
+      </c>
+      <c r="O16" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>255</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15">
@@ -1884,7 +2286,7 @@
         <v>2024</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1">
         <v>1116</v>
@@ -1903,6 +2305,30 @@
       </c>
       <c r="I17" s="1">
         <v>31</v>
+      </c>
+      <c r="J17" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="K17" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="L17" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="M17" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>913</v>
+      </c>
+      <c r="N17" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1618</v>
+      </c>
+      <c r="O17" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>461</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15">
@@ -1913,7 +2339,7 @@
         <v>2024</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1">
         <v>1816</v>
@@ -1932,6 +2358,30 @@
       </c>
       <c r="I18" s="1">
         <v>61</v>
+      </c>
+      <c r="J18" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1749</v>
+      </c>
+      <c r="K18" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>950</v>
+      </c>
+      <c r="L18" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="M18" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1380</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1122</v>
+      </c>
+      <c r="O18" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1301</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15">
@@ -1942,7 +2392,7 @@
         <v>2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1">
         <v>1007</v>
@@ -1961,6 +2411,30 @@
       </c>
       <c r="I19" s="1">
         <v>48</v>
+      </c>
+      <c r="J19" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="K19" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>527</v>
+      </c>
+      <c r="L19" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="M19" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1510</v>
+      </c>
+      <c r="N19" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1844</v>
+      </c>
+      <c r="O19" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15">
@@ -1971,7 +2445,7 @@
         <v>2024</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1">
         <v>1127</v>
@@ -1990,6 +2464,30 @@
       </c>
       <c r="I20" s="1">
         <v>46</v>
+      </c>
+      <c r="J20" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1613</v>
+      </c>
+      <c r="K20" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1035</v>
+      </c>
+      <c r="L20" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="M20" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1359</v>
+      </c>
+      <c r="N20" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1014</v>
+      </c>
+      <c r="O20" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15">
@@ -2000,7 +2498,7 @@
         <v>2024</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1">
         <v>1582</v>
@@ -2019,6 +2517,30 @@
       </c>
       <c r="I21" s="1">
         <v>115</v>
+      </c>
+      <c r="J21" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="K21" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="L21" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M21" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1572</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1745</v>
+      </c>
+      <c r="O21" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1553</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15">
@@ -2029,7 +2551,7 @@
         <v>2024</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1">
         <v>812</v>
@@ -2048,6 +2570,30 @@
       </c>
       <c r="I22" s="1">
         <v>58</v>
+      </c>
+      <c r="J22" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1674</v>
+      </c>
+      <c r="K22" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="L22" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="M22" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="N22" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="O22" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>488</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15">
@@ -2058,7 +2604,7 @@
         <v>2024</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1">
         <v>1513</v>
@@ -2077,6 +2623,30 @@
       </c>
       <c r="I23" s="1">
         <v>30</v>
+      </c>
+      <c r="J23" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>563</v>
+      </c>
+      <c r="K23" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>821</v>
+      </c>
+      <c r="L23" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="M23" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>929</v>
+      </c>
+      <c r="N23" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1994</v>
+      </c>
+      <c r="O23" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>110</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15">
@@ -2087,7 +2657,7 @@
         <v>2024</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1">
         <v>854</v>
@@ -2106,6 +2676,30 @@
       </c>
       <c r="I24" s="1">
         <v>51</v>
+      </c>
+      <c r="J24" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="K24" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1805</v>
+      </c>
+      <c r="L24" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="M24" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1888</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="O24" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1312</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15">
@@ -2116,7 +2710,7 @@
         <v>2024</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1">
         <v>654</v>
@@ -2135,6 +2729,30 @@
       </c>
       <c r="I25" s="1">
         <v>51</v>
+      </c>
+      <c r="J25" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1394</v>
+      </c>
+      <c r="K25" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1903</v>
+      </c>
+      <c r="L25" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1165</v>
+      </c>
+      <c r="M25" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>916</v>
+      </c>
+      <c r="N25" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>874</v>
+      </c>
+      <c r="O25" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1140</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15">
@@ -2145,7 +2763,7 @@
         <v>2023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1">
         <v>270</v>
@@ -2164,6 +2782,30 @@
       </c>
       <c r="I26" s="1">
         <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="K26" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="L26" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>944</v>
+      </c>
+      <c r="M26" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="N26" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1731</v>
+      </c>
+      <c r="O26" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1553</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="15">
@@ -2174,7 +2816,7 @@
         <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1">
         <v>258</v>
@@ -2193,6 +2835,30 @@
       </c>
       <c r="I27" s="1">
         <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="K27" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1448</v>
+      </c>
+      <c r="L27" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>944</v>
+      </c>
+      <c r="M27" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1318</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="O27" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>356</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="15">
@@ -2203,7 +2869,7 @@
         <v>2023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1">
         <v>196</v>
@@ -2222,6 +2888,30 @@
       </c>
       <c r="I28" s="1">
         <v>13</v>
+      </c>
+      <c r="J28" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1598</v>
+      </c>
+      <c r="K28" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="L28" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+      <c r="M28" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1248</v>
+      </c>
+      <c r="N28" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="O28" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="15">
@@ -2232,7 +2922,7 @@
         <v>2023</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D29" s="1">
         <v>129</v>
@@ -2251,6 +2941,30 @@
       </c>
       <c r="I29" s="1">
         <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>946</v>
+      </c>
+      <c r="K29" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L29" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>741</v>
+      </c>
+      <c r="M29" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1827</v>
+      </c>
+      <c r="N29" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1219</v>
+      </c>
+      <c r="O29" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>369</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="15">
@@ -2261,7 +2975,7 @@
         <v>2023</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1">
         <v>205</v>
@@ -2280,6 +2994,30 @@
       </c>
       <c r="I30" s="1">
         <v>6</v>
+      </c>
+      <c r="J30" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1564</v>
+      </c>
+      <c r="K30" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1993</v>
+      </c>
+      <c r="L30" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1667</v>
+      </c>
+      <c r="M30" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>914</v>
+      </c>
+      <c r="O30" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>709</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="15">
@@ -2290,7 +3028,7 @@
         <v>2023</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1">
         <v>291</v>
@@ -2309,6 +3047,30 @@
       </c>
       <c r="I31" s="1">
         <v>20</v>
+      </c>
+      <c r="J31" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>873</v>
+      </c>
+      <c r="K31" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1696</v>
+      </c>
+      <c r="L31" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="M31" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1166</v>
+      </c>
+      <c r="N31" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="O31" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>96</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="15">
@@ -2319,7 +3081,7 @@
         <v>2023</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1">
         <v>236</v>
@@ -2338,6 +3100,30 @@
       </c>
       <c r="I32" s="1">
         <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="K32" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="L32" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="M32" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>632</v>
+      </c>
+      <c r="N32" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1537</v>
+      </c>
+      <c r="O32" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>633</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="15">
@@ -2348,7 +3134,7 @@
         <v>2023</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1">
         <v>341</v>
@@ -2367,6 +3153,30 @@
       </c>
       <c r="I33" s="1">
         <v>23</v>
+      </c>
+      <c r="J33" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="K33" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>724</v>
+      </c>
+      <c r="L33" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="M33" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1276</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1663</v>
+      </c>
+      <c r="O33" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>649</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="15">
@@ -2377,7 +3187,7 @@
         <v>2023</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1">
         <v>351</v>
@@ -2396,6 +3206,30 @@
       </c>
       <c r="I34" s="1">
         <v>23</v>
+      </c>
+      <c r="J34" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="K34" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1334</v>
+      </c>
+      <c r="L34" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="M34" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="N34" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>689</v>
+      </c>
+      <c r="O34" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1516</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="15">
@@ -2406,7 +3240,7 @@
         <v>2023</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1">
         <v>444</v>
@@ -2425,6 +3259,30 @@
       </c>
       <c r="I35" s="1">
         <v>13</v>
+      </c>
+      <c r="J35" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1114</v>
+      </c>
+      <c r="K35" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1119</v>
+      </c>
+      <c r="L35" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="M35" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1674</v>
+      </c>
+      <c r="N35" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1745</v>
+      </c>
+      <c r="O35" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>179</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="15">
@@ -2435,7 +3293,7 @@
         <v>2023</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1">
         <v>284</v>
@@ -2454,6 +3312,30 @@
       </c>
       <c r="I36" s="1">
         <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="K36" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>706</v>
+      </c>
+      <c r="L36" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="M36" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>967</v>
+      </c>
+      <c r="O36" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1917</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="15">
@@ -2464,7 +3346,7 @@
         <v>2023</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1">
         <v>264</v>
@@ -2483,6 +3365,30 @@
       </c>
       <c r="I37" s="1">
         <v>20</v>
+      </c>
+      <c r="J37" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="K37" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+      <c r="L37" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1729</v>
+      </c>
+      <c r="M37" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1090</v>
+      </c>
+      <c r="N37" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1432</v>
+      </c>
+      <c r="O37" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>279</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="15">
@@ -2493,7 +3399,7 @@
         <v>2024</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1">
         <v>156</v>
@@ -2512,6 +3418,30 @@
       </c>
       <c r="I38" s="1">
         <v>9</v>
+      </c>
+      <c r="J38" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="K38" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1388</v>
+      </c>
+      <c r="L38" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="M38" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1175</v>
+      </c>
+      <c r="N38" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="O38" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1355</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="15">
@@ -2522,7 +3452,7 @@
         <v>2024</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1">
         <v>189</v>
@@ -2541,6 +3471,30 @@
       </c>
       <c r="I39" s="1">
         <v>9</v>
+      </c>
+      <c r="J39" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>854</v>
+      </c>
+      <c r="K39" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1942</v>
+      </c>
+      <c r="L39" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="M39" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1168</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="O39" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1346</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="15">
@@ -2551,7 +3505,7 @@
         <v>2024</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1">
         <v>165</v>
@@ -2570,6 +3524,30 @@
       </c>
       <c r="I40" s="1">
         <v>8</v>
+      </c>
+      <c r="J40" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1897</v>
+      </c>
+      <c r="K40" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="L40" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1871</v>
+      </c>
+      <c r="M40" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>711</v>
+      </c>
+      <c r="N40" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1557</v>
+      </c>
+      <c r="O40" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>162</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="15">
@@ -2580,7 +3558,7 @@
         <v>2024</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1">
         <v>277</v>
@@ -2599,6 +3577,30 @@
       </c>
       <c r="I41" s="1">
         <v>20</v>
+      </c>
+      <c r="J41" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="K41" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+      <c r="L41" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1698</v>
+      </c>
+      <c r="M41" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1202</v>
+      </c>
+      <c r="N41" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="O41" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1742</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="15">
@@ -2609,7 +3611,7 @@
         <v>2024</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1">
         <v>387</v>
@@ -2628,6 +3630,30 @@
       </c>
       <c r="I42" s="1">
         <v>18</v>
+      </c>
+      <c r="J42" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1244</v>
+      </c>
+      <c r="K42" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>706</v>
+      </c>
+      <c r="L42" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="M42" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1591</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1569</v>
+      </c>
+      <c r="O42" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>838</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="15">
@@ -2638,7 +3664,7 @@
         <v>2024</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1">
         <v>211</v>
@@ -2657,6 +3683,30 @@
       </c>
       <c r="I43" s="1">
         <v>9</v>
+      </c>
+      <c r="J43" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1892</v>
+      </c>
+      <c r="K43" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="L43" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="M43" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1358</v>
+      </c>
+      <c r="N43" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1569</v>
+      </c>
+      <c r="O43" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1393</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="15">
@@ -2667,7 +3717,7 @@
         <v>2024</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1">
         <v>416</v>
@@ -2686,6 +3736,30 @@
       </c>
       <c r="I44" s="1">
         <v>28</v>
+      </c>
+      <c r="J44" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1392</v>
+      </c>
+      <c r="K44" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="L44" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1619</v>
+      </c>
+      <c r="M44" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="N44" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1089</v>
+      </c>
+      <c r="O44" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>336</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
@@ -2696,7 +3770,7 @@
         <v>2024</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1">
         <v>266</v>
@@ -2715,6 +3789,30 @@
       </c>
       <c r="I45" s="1">
         <v>11</v>
+      </c>
+      <c r="J45" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="K45" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1541</v>
+      </c>
+      <c r="L45" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="M45" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1984</v>
+      </c>
+      <c r="O45" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1715</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="15">
@@ -2725,7 +3823,7 @@
         <v>2024</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1">
         <v>527</v>
@@ -2744,6 +3842,30 @@
       </c>
       <c r="I46" s="1">
         <v>10</v>
+      </c>
+      <c r="J46" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1447</v>
+      </c>
+      <c r="K46" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>726</v>
+      </c>
+      <c r="L46" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="M46" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="N46" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1363</v>
+      </c>
+      <c r="O46" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>584</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="15">
@@ -2754,7 +3876,7 @@
         <v>2024</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1">
         <v>572</v>
@@ -2773,6 +3895,30 @@
       </c>
       <c r="I47" s="1">
         <v>53</v>
+      </c>
+      <c r="J47" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="K47" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1480</v>
+      </c>
+      <c r="L47" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1919</v>
+      </c>
+      <c r="M47" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="N47" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>584</v>
+      </c>
+      <c r="O47" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>89</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="15">
@@ -2783,7 +3929,7 @@
         <v>2024</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1">
         <v>308</v>
@@ -2802,6 +3948,30 @@
       </c>
       <c r="I48" s="1">
         <v>19</v>
+      </c>
+      <c r="J48" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="K48" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1182</v>
+      </c>
+      <c r="L48" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1869</v>
+      </c>
+      <c r="M48" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="N48" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="O48" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1761</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="15">
@@ -2812,7 +3982,7 @@
         <v>2024</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1">
         <v>296</v>
@@ -2831,6 +4001,30 @@
       </c>
       <c r="I49" s="1">
         <v>13</v>
+      </c>
+      <c r="J49" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>874</v>
+      </c>
+      <c r="K49" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="L49" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="M49" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>567</v>
+      </c>
+      <c r="N49" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1483</v>
+      </c>
+      <c r="O49" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>255</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="15">
@@ -2841,7 +4035,7 @@
         <v>2023</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1">
         <v>735</v>
@@ -2860,6 +4054,30 @@
       </c>
       <c r="I50" s="1">
         <v>59</v>
+      </c>
+      <c r="J50" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>559</v>
+      </c>
+      <c r="K50" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>739</v>
+      </c>
+      <c r="L50" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1551</v>
+      </c>
+      <c r="M50" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="N50" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1231</v>
+      </c>
+      <c r="O50" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="15">
@@ -2870,7 +4088,7 @@
         <v>2023</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1">
         <v>528</v>
@@ -2889,6 +4107,30 @@
       </c>
       <c r="I51" s="1">
         <v>11</v>
+      </c>
+      <c r="J51" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1580</v>
+      </c>
+      <c r="K51" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1473</v>
+      </c>
+      <c r="L51" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="M51" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1584</v>
+      </c>
+      <c r="N51" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1868</v>
+      </c>
+      <c r="O51" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>594</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="15">
@@ -2899,7 +4141,7 @@
         <v>2023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1">
         <v>932</v>
@@ -2918,6 +4160,30 @@
       </c>
       <c r="I52" s="1">
         <v>51</v>
+      </c>
+      <c r="J52" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1709</v>
+      </c>
+      <c r="K52" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>607</v>
+      </c>
+      <c r="L52" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1834</v>
+      </c>
+      <c r="M52" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N52" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1825</v>
+      </c>
+      <c r="O52" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>128</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="15">
@@ -2928,7 +4194,7 @@
         <v>2023</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1">
         <v>1103</v>
@@ -2947,6 +4213,30 @@
       </c>
       <c r="I53" s="1">
         <v>52</v>
+      </c>
+      <c r="J53" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1064</v>
+      </c>
+      <c r="K53" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1224</v>
+      </c>
+      <c r="L53" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+      <c r="M53" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="N53" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1737</v>
+      </c>
+      <c r="O53" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>459</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="15">
@@ -2957,7 +4247,7 @@
         <v>2023</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1">
         <v>1259</v>
@@ -2976,6 +4266,30 @@
       </c>
       <c r="I54" s="1">
         <v>75</v>
+      </c>
+      <c r="J54" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K54" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="L54" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="M54" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="N54" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="O54" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>267</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="15">
@@ -2986,7 +4300,7 @@
         <v>2023</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1">
         <v>1622</v>
@@ -3005,6 +4319,30 @@
       </c>
       <c r="I55" s="1">
         <v>26</v>
+      </c>
+      <c r="J55" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="K55" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="L55" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="M55" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="N55" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="O55" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>229</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="15">
@@ -3015,7 +4353,7 @@
         <v>2023</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1">
         <v>1519</v>
@@ -3034,6 +4372,30 @@
       </c>
       <c r="I56" s="1">
         <v>100</v>
+      </c>
+      <c r="J56" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="K56" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>653</v>
+      </c>
+      <c r="L56" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>702</v>
+      </c>
+      <c r="M56" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>919</v>
+      </c>
+      <c r="N56" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1537</v>
+      </c>
+      <c r="O56" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="15">
@@ -3044,7 +4406,7 @@
         <v>2023</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D57" s="1">
         <v>1667</v>
@@ -3063,6 +4425,30 @@
       </c>
       <c r="I57" s="1">
         <v>53</v>
+      </c>
+      <c r="J57" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1485</v>
+      </c>
+      <c r="K57" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+      <c r="L57" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="M57" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1585</v>
+      </c>
+      <c r="N57" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1263</v>
+      </c>
+      <c r="O57" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1868</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="15">
@@ -3073,7 +4459,7 @@
         <v>2023</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1">
         <v>1661</v>
@@ -3092,6 +4478,30 @@
       </c>
       <c r="I58" s="1">
         <v>64</v>
+      </c>
+      <c r="J58" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="K58" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1813</v>
+      </c>
+      <c r="L58" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M58" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1512</v>
+      </c>
+      <c r="N58" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1252</v>
+      </c>
+      <c r="O58" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1046</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="15">
@@ -3102,7 +4512,7 @@
         <v>2023</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1">
         <v>1459</v>
@@ -3121,6 +4531,30 @@
       </c>
       <c r="I59" s="1">
         <v>88</v>
+      </c>
+      <c r="J59" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1861</v>
+      </c>
+      <c r="K59" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1744</v>
+      </c>
+      <c r="L59" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="M59" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1710</v>
+      </c>
+      <c r="N59" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>674</v>
+      </c>
+      <c r="O59" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>191</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="15">
@@ -3131,7 +4565,7 @@
         <v>2023</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1">
         <v>625</v>
@@ -3150,6 +4584,30 @@
       </c>
       <c r="I60" s="1">
         <v>44</v>
+      </c>
+      <c r="J60" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="K60" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1370</v>
+      </c>
+      <c r="L60" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M60" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="N60" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1270</v>
+      </c>
+      <c r="O60" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1736</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="15">
@@ -3160,7 +4618,7 @@
         <v>2023</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1">
         <v>760</v>
@@ -3179,6 +4637,30 @@
       </c>
       <c r="I61" s="1">
         <v>43</v>
+      </c>
+      <c r="J61" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="K61" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>622</v>
+      </c>
+      <c r="L61" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1277</v>
+      </c>
+      <c r="M61" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1143</v>
+      </c>
+      <c r="N61" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="O61" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1477</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="15">
@@ -3189,7 +4671,7 @@
         <v>2024</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D62" s="1">
         <v>880</v>
@@ -3208,6 +4690,30 @@
       </c>
       <c r="I62" s="1">
         <v>33</v>
+      </c>
+      <c r="J62" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="K62" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1533</v>
+      </c>
+      <c r="L62" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1393</v>
+      </c>
+      <c r="M62" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1393</v>
+      </c>
+      <c r="N62" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1477</v>
+      </c>
+      <c r="O62" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1531</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="15">
@@ -3218,7 +4724,7 @@
         <v>2024</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1">
         <v>513</v>
@@ -3237,6 +4743,30 @@
       </c>
       <c r="I63" s="1">
         <v>31</v>
+      </c>
+      <c r="J63" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="K63" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="L63" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="M63" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="N63" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1531</v>
+      </c>
+      <c r="O63" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>513</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="15">
@@ -3247,7 +4777,7 @@
         <v>2024</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1">
         <v>922</v>
@@ -3266,6 +4796,30 @@
       </c>
       <c r="I64" s="1">
         <v>39</v>
+      </c>
+      <c r="J64" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="K64" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1171</v>
+      </c>
+      <c r="L64" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="M64" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="N64" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1187</v>
+      </c>
+      <c r="O64" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1588</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="15">
@@ -3276,7 +4830,7 @@
         <v>2024</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1">
         <v>1049</v>
@@ -3295,6 +4849,30 @@
       </c>
       <c r="I65" s="1">
         <v>31</v>
+      </c>
+      <c r="J65" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="K65" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1936</v>
+      </c>
+      <c r="L65" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>998</v>
+      </c>
+      <c r="M65" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1899</v>
+      </c>
+      <c r="N65" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1482</v>
+      </c>
+      <c r="O65" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>582</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="15">
@@ -3305,7 +4883,7 @@
         <v>2024</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1">
         <v>929</v>
@@ -3324,6 +4902,30 @@
       </c>
       <c r="I66" s="1">
         <v>43</v>
+      </c>
+      <c r="J66" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1329</v>
+      </c>
+      <c r="K66" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="L66" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="M66" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+      <c r="N66" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="O66" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1643</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="15">
@@ -3334,7 +4936,7 @@
         <v>2024</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1">
         <v>1193</v>
@@ -3353,6 +4955,30 @@
       </c>
       <c r="I67" s="1">
         <v>85</v>
+      </c>
+      <c r="J67" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="K67" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="L67" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="M67" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>807</v>
+      </c>
+      <c r="N67" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1643</v>
+      </c>
+      <c r="O67" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>146</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="15">
@@ -3363,7 +4989,7 @@
         <v>2024</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D68" s="1">
         <v>1198</v>
@@ -3382,6 +5008,30 @@
       </c>
       <c r="I68" s="1">
         <v>94</v>
+      </c>
+      <c r="J68" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1088</v>
+      </c>
+      <c r="K68" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1744</v>
+      </c>
+      <c r="L68" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1608</v>
+      </c>
+      <c r="M68" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1711</v>
+      </c>
+      <c r="N68" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="O68" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1370</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="15">
@@ -3392,7 +5042,7 @@
         <v>2024</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1">
         <v>885</v>
@@ -3411,6 +5061,30 @@
       </c>
       <c r="I69" s="1">
         <v>37</v>
+      </c>
+      <c r="J69" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="K69" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1744</v>
+      </c>
+      <c r="L69" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1526</v>
+      </c>
+      <c r="M69" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1070</v>
+      </c>
+      <c r="N69" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="O69" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1754</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="15">
@@ -3421,7 +5095,7 @@
         <v>2024</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D70" s="1">
         <v>1168</v>
@@ -3440,6 +5114,30 @@
       </c>
       <c r="I70" s="1">
         <v>33</v>
+      </c>
+      <c r="J70" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="K70" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="L70" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="M70" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="N70" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>809</v>
+      </c>
+      <c r="O70" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>809</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="15">
@@ -3450,7 +5148,7 @@
         <v>2024</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1">
         <v>1482</v>
@@ -3469,6 +5167,30 @@
       </c>
       <c r="I71" s="1">
         <v>46</v>
+      </c>
+      <c r="J71" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1144</v>
+      </c>
+      <c r="K71" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1188</v>
+      </c>
+      <c r="L71" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>913</v>
+      </c>
+      <c r="M71" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1605</v>
+      </c>
+      <c r="N71" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+      <c r="O71" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1152</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="15">
@@ -3479,7 +5201,7 @@
         <v>2024</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1">
         <v>587</v>
@@ -3498,6 +5220,30 @@
       </c>
       <c r="I72" s="1">
         <v>38</v>
+      </c>
+      <c r="J72" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="K72" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>519</v>
+      </c>
+      <c r="L72" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1572</v>
+      </c>
+      <c r="M72" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1588</v>
+      </c>
+      <c r="N72" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="O72" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1878</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="15">
@@ -3508,7 +5254,7 @@
         <v>2024</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D73" s="1">
         <v>998</v>
@@ -3527,6 +5273,30 @@
       </c>
       <c r="I73" s="1">
         <v>57</v>
+      </c>
+      <c r="J73" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="K73" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>985</v>
+      </c>
+      <c r="L73" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>751</v>
+      </c>
+      <c r="M73" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N73" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>839</v>
+      </c>
+      <c r="O73" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1729</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="15">
@@ -3537,7 +5307,7 @@
         <v>2023</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D74" s="1">
         <v>762</v>
@@ -3556,6 +5326,30 @@
       </c>
       <c r="I74" s="1">
         <v>58</v>
+      </c>
+      <c r="J74" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1406</v>
+      </c>
+      <c r="K74" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1281</v>
+      </c>
+      <c r="L74" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1614</v>
+      </c>
+      <c r="M74" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>457</v>
+      </c>
+      <c r="N74" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="O74" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>870</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="15">
@@ -3566,7 +5360,7 @@
         <v>2023</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D75" s="1">
         <v>1032</v>
@@ -3585,6 +5379,30 @@
       </c>
       <c r="I75" s="1">
         <v>44</v>
+      </c>
+      <c r="J75" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="K75" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="L75" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M75" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>961</v>
+      </c>
+      <c r="N75" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="O75" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>793</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="15">
@@ -3595,7 +5413,7 @@
         <v>2023</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D76" s="1">
         <v>525</v>
@@ -3614,6 +5432,30 @@
       </c>
       <c r="I76" s="1">
         <v>26</v>
+      </c>
+      <c r="J76" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="K76" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>771</v>
+      </c>
+      <c r="L76" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1714</v>
+      </c>
+      <c r="M76" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1818</v>
+      </c>
+      <c r="N76" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1172</v>
+      </c>
+      <c r="O76" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1172</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="15">
@@ -3624,7 +5466,7 @@
         <v>2023</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D77" s="1">
         <v>818</v>
@@ -3643,6 +5485,30 @@
       </c>
       <c r="I77" s="1">
         <v>21</v>
+      </c>
+      <c r="J77" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="K77" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1413</v>
+      </c>
+      <c r="L77" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1845</v>
+      </c>
+      <c r="M77" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>818</v>
+      </c>
+      <c r="N77" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1303</v>
+      </c>
+      <c r="O77" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>845</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="15">
@@ -3653,7 +5519,7 @@
         <v>2023</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D78" s="1">
         <v>1414</v>
@@ -3672,6 +5538,30 @@
       </c>
       <c r="I78" s="1">
         <v>66</v>
+      </c>
+      <c r="J78" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="K78" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>634</v>
+      </c>
+      <c r="L78" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="M78" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="N78" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>845</v>
+      </c>
+      <c r="O78" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1110</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="15">
@@ -3682,7 +5572,7 @@
         <v>2023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D79" s="1">
         <v>842</v>
@@ -3701,6 +5591,30 @@
       </c>
       <c r="I79" s="1">
         <v>25</v>
+      </c>
+      <c r="J79" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="K79" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1616</v>
+      </c>
+      <c r="L79" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="M79" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1077</v>
+      </c>
+      <c r="N79" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="O79" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1850</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="15">
@@ -3711,7 +5625,7 @@
         <v>2023</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1">
         <v>1228</v>
@@ -3730,6 +5644,30 @@
       </c>
       <c r="I80" s="1">
         <v>44</v>
+      </c>
+      <c r="J80" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="K80" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="L80" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1243</v>
+      </c>
+      <c r="M80" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="N80" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1716</v>
+      </c>
+      <c r="O80" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>985</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="15">
@@ -3740,7 +5678,7 @@
         <v>2023</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1">
         <v>1007</v>
@@ -3759,6 +5697,30 @@
       </c>
       <c r="I81" s="1">
         <v>43</v>
+      </c>
+      <c r="J81" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1894</v>
+      </c>
+      <c r="K81" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="L81" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="M81" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="N81" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1569</v>
+      </c>
+      <c r="O81" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1095</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="15">
@@ -3769,7 +5731,7 @@
         <v>2023</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D82" s="1">
         <v>1222</v>
@@ -3788,6 +5750,30 @@
       </c>
       <c r="I82" s="1">
         <v>62</v>
+      </c>
+      <c r="J82" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="K82" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="L82" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1710</v>
+      </c>
+      <c r="M82" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1825</v>
+      </c>
+      <c r="N82" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1453</v>
+      </c>
+      <c r="O82" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>634</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="15">
@@ -3798,7 +5784,7 @@
         <v>2023</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1">
         <v>1762</v>
@@ -3817,6 +5803,30 @@
       </c>
       <c r="I83" s="1">
         <v>92</v>
+      </c>
+      <c r="J83" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="K83" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1435</v>
+      </c>
+      <c r="L83" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1947</v>
+      </c>
+      <c r="M83" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1686</v>
+      </c>
+      <c r="N83" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1859</v>
+      </c>
+      <c r="O83" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1690</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="15">
@@ -3827,7 +5837,7 @@
         <v>2023</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1">
         <v>840</v>
@@ -3846,6 +5856,30 @@
       </c>
       <c r="I84" s="1">
         <v>28</v>
+      </c>
+      <c r="J84" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>627</v>
+      </c>
+      <c r="K84" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1759</v>
+      </c>
+      <c r="L84" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1913</v>
+      </c>
+      <c r="M84" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1791</v>
+      </c>
+      <c r="N84" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="O84" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1614</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="15">
@@ -3856,7 +5890,7 @@
         <v>2023</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1">
         <v>656</v>
@@ -3875,6 +5909,30 @@
       </c>
       <c r="I85" s="1">
         <v>29</v>
+      </c>
+      <c r="J85" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="K85" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+      <c r="L85" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>859</v>
+      </c>
+      <c r="M85" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>948</v>
+      </c>
+      <c r="N85" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1242</v>
+      </c>
+      <c r="O85" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>669</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="15">
@@ -3885,7 +5943,7 @@
         <v>2024</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D86" s="1">
         <v>687</v>
@@ -3904,6 +5962,30 @@
       </c>
       <c r="I86" s="1">
         <v>46</v>
+      </c>
+      <c r="J86" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1106</v>
+      </c>
+      <c r="K86" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>758</v>
+      </c>
+      <c r="L86" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1059</v>
+      </c>
+      <c r="M86" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>914</v>
+      </c>
+      <c r="N86" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>669</v>
+      </c>
+      <c r="O86" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1081</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="15">
@@ -3914,7 +5996,7 @@
         <v>2024</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1">
         <v>976</v>
@@ -3933,6 +6015,30 @@
       </c>
       <c r="I87" s="1">
         <v>72</v>
+      </c>
+      <c r="J87" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="K87" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>618</v>
+      </c>
+      <c r="L87" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="M87" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+      <c r="N87" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>803</v>
+      </c>
+      <c r="O87" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>792</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="15">
@@ -3943,7 +6049,7 @@
         <v>2024</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D88" s="1">
         <v>1062</v>
@@ -3962,6 +6068,30 @@
       </c>
       <c r="I88" s="1">
         <v>45</v>
+      </c>
+      <c r="J88" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>627</v>
+      </c>
+      <c r="K88" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="L88" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="M88" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="N88" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>709</v>
+      </c>
+      <c r="O88" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1318</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="15">
@@ -3972,7 +6102,7 @@
         <v>2024</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D89" s="1">
         <v>730</v>
@@ -3991,6 +6121,30 @@
       </c>
       <c r="I89" s="1">
         <v>19</v>
+      </c>
+      <c r="J89" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1659</v>
+      </c>
+      <c r="K89" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>863</v>
+      </c>
+      <c r="L89" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="M89" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="N89" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="O89" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1367</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="15">
@@ -4001,7 +6155,7 @@
         <v>2024</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D90" s="1">
         <v>1671</v>
@@ -4020,6 +6174,30 @@
       </c>
       <c r="I90" s="1">
         <v>167</v>
+      </c>
+      <c r="J90" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1905</v>
+      </c>
+      <c r="K90" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="L90" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1366</v>
+      </c>
+      <c r="M90" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="N90" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="O90" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>978</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="15">
@@ -4030,7 +6208,7 @@
         <v>2024</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1">
         <v>1801</v>
@@ -4049,6 +6227,30 @@
       </c>
       <c r="I91" s="1">
         <v>75</v>
+      </c>
+      <c r="J91" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1522</v>
+      </c>
+      <c r="K91" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="L91" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="M91" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="N91" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1851</v>
+      </c>
+      <c r="O91" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>347</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="15">
@@ -4059,7 +6261,7 @@
         <v>2024</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D92" s="1">
         <v>1025</v>
@@ -4078,6 +6280,30 @@
       </c>
       <c r="I92" s="1">
         <v>40</v>
+      </c>
+      <c r="J92" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>526</v>
+      </c>
+      <c r="K92" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1187</v>
+      </c>
+      <c r="L92" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="M92" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>381</v>
+      </c>
+      <c r="N92" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="O92" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1305</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="15">
@@ -4088,7 +6314,7 @@
         <v>2024</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D93" s="1">
         <v>1530</v>
@@ -4107,6 +6333,30 @@
       </c>
       <c r="I93" s="1">
         <v>108</v>
+      </c>
+      <c r="J93" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="K93" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1223</v>
+      </c>
+      <c r="L93" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M93" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="N93" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1390</v>
+      </c>
+      <c r="O93" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>930</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="15">
@@ -4117,7 +6367,7 @@
         <v>2024</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D94" s="1">
         <v>1043</v>
@@ -4136,6 +6386,30 @@
       </c>
       <c r="I94" s="1">
         <v>89</v>
+      </c>
+      <c r="J94" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="K94" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1928</v>
+      </c>
+      <c r="L94" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>789</v>
+      </c>
+      <c r="M94" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>973</v>
+      </c>
+      <c r="N94" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>878</v>
+      </c>
+      <c r="O94" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1091</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="15">
@@ -4146,7 +6420,7 @@
         <v>2024</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D95" s="1">
         <v>796</v>
@@ -4165,6 +6439,30 @@
       </c>
       <c r="I95" s="1">
         <v>53</v>
+      </c>
+      <c r="J95" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1642</v>
+      </c>
+      <c r="K95" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1932</v>
+      </c>
+      <c r="L95" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>973</v>
+      </c>
+      <c r="M95" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>847</v>
+      </c>
+      <c r="N95" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>353</v>
+      </c>
+      <c r="O95" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1096</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="15">
@@ -4175,7 +6473,7 @@
         <v>2024</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D96" s="1">
         <v>1032</v>
@@ -4194,6 +6492,30 @@
       </c>
       <c r="I96" s="1">
         <v>75</v>
+      </c>
+      <c r="J96" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="K96" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="L96" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="M96" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="N96" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1675</v>
+      </c>
+      <c r="O96" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>724</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="15">
@@ -4204,7 +6526,7 @@
         <v>2024</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D97" s="1">
         <v>815</v>
@@ -4223,6 +6545,30 @@
       </c>
       <c r="I97" s="1">
         <v>50</v>
+      </c>
+      <c r="J97" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1386</v>
+      </c>
+      <c r="K97" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>531</v>
+      </c>
+      <c r="L97" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1521</v>
+      </c>
+      <c r="M97" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="N97" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>882</v>
+      </c>
+      <c r="O97" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1036</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="15">
@@ -4233,7 +6579,7 @@
         <v>2023</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D98" s="1">
         <v>850</v>
@@ -4252,6 +6598,30 @@
       </c>
       <c r="I98" s="1">
         <v>29</v>
+      </c>
+      <c r="J98" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>556</v>
+      </c>
+      <c r="K98" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1701</v>
+      </c>
+      <c r="L98" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="M98" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1928</v>
+      </c>
+      <c r="N98" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="O98" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>687</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="15">
@@ -4262,7 +6632,7 @@
         <v>2023</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D99" s="1">
         <v>964</v>
@@ -4281,6 +6651,30 @@
       </c>
       <c r="I99" s="1">
         <v>15</v>
+      </c>
+      <c r="J99" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="K99" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1355</v>
+      </c>
+      <c r="L99" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>556</v>
+      </c>
+      <c r="M99" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1643</v>
+      </c>
+      <c r="N99" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>662</v>
+      </c>
+      <c r="O99" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>968</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="15">
@@ -4291,7 +6685,7 @@
         <v>2023</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D100" s="1">
         <v>847</v>
@@ -4310,6 +6704,30 @@
       </c>
       <c r="I100" s="1">
         <v>50</v>
+      </c>
+      <c r="J100" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="K100" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1721</v>
+      </c>
+      <c r="L100" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1119</v>
+      </c>
+      <c r="M100" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>463</v>
+      </c>
+      <c r="N100" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="O100" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>518</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="15">
@@ -4320,7 +6738,7 @@
         <v>2023</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D101" s="1">
         <v>826</v>
@@ -4339,6 +6757,30 @@
       </c>
       <c r="I101" s="1">
         <v>34</v>
+      </c>
+      <c r="J101" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="K101" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1943</v>
+      </c>
+      <c r="L101" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>559</v>
+      </c>
+      <c r="M101" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="N101" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1162</v>
+      </c>
+      <c r="O101" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1580</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="15">
@@ -4349,7 +6791,7 @@
         <v>2023</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D102" s="1">
         <v>1652</v>
@@ -4368,6 +6810,30 @@
       </c>
       <c r="I102" s="1">
         <v>54</v>
+      </c>
+      <c r="J102" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1899</v>
+      </c>
+      <c r="K102" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1157</v>
+      </c>
+      <c r="L102" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+      <c r="M102" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1165</v>
+      </c>
+      <c r="N102" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1038</v>
+      </c>
+      <c r="O102" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1824</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="15">
@@ -4378,7 +6844,7 @@
         <v>2023</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D103" s="1">
         <v>1340</v>
@@ -4397,6 +6863,30 @@
       </c>
       <c r="I103" s="1">
         <v>55</v>
+      </c>
+      <c r="J103" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1068</v>
+      </c>
+      <c r="K103" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1317</v>
+      </c>
+      <c r="L103" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>782</v>
+      </c>
+      <c r="M103" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="N103" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1744</v>
+      </c>
+      <c r="O103" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1954</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" ht="15">
@@ -4407,7 +6897,7 @@
         <v>2023</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D104" s="1">
         <v>1719</v>
@@ -4426,6 +6916,30 @@
       </c>
       <c r="I104" s="1">
         <v>53</v>
+      </c>
+      <c r="J104" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1331</v>
+      </c>
+      <c r="K104" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1097</v>
+      </c>
+      <c r="L104" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="M104" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1641</v>
+      </c>
+      <c r="N104" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1828</v>
+      </c>
+      <c r="O104" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1768</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="15">
@@ -4436,7 +6950,7 @@
         <v>2023</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D105" s="1">
         <v>1306</v>
@@ -4455,6 +6969,30 @@
       </c>
       <c r="I105" s="1">
         <v>80</v>
+      </c>
+      <c r="J105" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1286</v>
+      </c>
+      <c r="K105" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>915</v>
+      </c>
+      <c r="L105" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="M105" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1735</v>
+      </c>
+      <c r="N105" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="O105" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1886</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="15">
@@ -4465,7 +7003,7 @@
         <v>2023</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D106" s="1">
         <v>1491</v>
@@ -4484,6 +7022,30 @@
       </c>
       <c r="I106" s="1">
         <v>40</v>
+      </c>
+      <c r="J106" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1917</v>
+      </c>
+      <c r="K106" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1884</v>
+      </c>
+      <c r="L106" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+      <c r="M106" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1508</v>
+      </c>
+      <c r="N106" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>878</v>
+      </c>
+      <c r="O106" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>770</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="15">
@@ -4494,7 +7056,7 @@
         <v>2023</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D107" s="1">
         <v>1584</v>
@@ -4513,6 +7075,30 @@
       </c>
       <c r="I107" s="1">
         <v>31</v>
+      </c>
+      <c r="J107" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="K107" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="L107" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="M107" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>743</v>
+      </c>
+      <c r="N107" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1993</v>
+      </c>
+      <c r="O107" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1045</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="15">
@@ -4523,7 +7109,7 @@
         <v>2023</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D108" s="1">
         <v>820</v>
@@ -4542,6 +7128,30 @@
       </c>
       <c r="I108" s="1">
         <v>43</v>
+      </c>
+      <c r="J108" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1577</v>
+      </c>
+      <c r="K108" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1852</v>
+      </c>
+      <c r="L108" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1066</v>
+      </c>
+      <c r="M108" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>769</v>
+      </c>
+      <c r="N108" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="O108" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>752</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" ht="15">
@@ -4552,7 +7162,7 @@
         <v>2023</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D109" s="1">
         <v>908</v>
@@ -4571,6 +7181,30 @@
       </c>
       <c r="I109" s="1">
         <v>66</v>
+      </c>
+      <c r="J109" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1065</v>
+      </c>
+      <c r="K109" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1550</v>
+      </c>
+      <c r="L109" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1282</v>
+      </c>
+      <c r="M109" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1171</v>
+      </c>
+      <c r="N109" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1392</v>
+      </c>
+      <c r="O109" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>256</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="15">
@@ -4581,7 +7215,7 @@
         <v>2024</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1">
         <v>911</v>
@@ -4600,6 +7234,30 @@
       </c>
       <c r="I110" s="1">
         <v>48</v>
+      </c>
+      <c r="J110" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1094</v>
+      </c>
+      <c r="K110" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1230</v>
+      </c>
+      <c r="L110" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="M110" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="N110" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="O110" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1678</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="15">
@@ -4610,7 +7268,7 @@
         <v>2024</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1">
         <v>922</v>
@@ -4629,6 +7287,30 @@
       </c>
       <c r="I111" s="1">
         <v>32</v>
+      </c>
+      <c r="J111" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1029</v>
+      </c>
+      <c r="K111" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1048</v>
+      </c>
+      <c r="L111" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="M111" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1846</v>
+      </c>
+      <c r="N111" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1870</v>
+      </c>
+      <c r="O111" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>115</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="15">
@@ -4639,7 +7321,7 @@
         <v>2024</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D112" s="1">
         <v>652</v>
@@ -4658,6 +7340,30 @@
       </c>
       <c r="I112" s="1">
         <v>43</v>
+      </c>
+      <c r="J112" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="K112" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1428</v>
+      </c>
+      <c r="L112" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1867</v>
+      </c>
+      <c r="M112" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="N112" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1195</v>
+      </c>
+      <c r="O112" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>280</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" ht="15">
@@ -4668,7 +7374,7 @@
         <v>2024</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D113" s="1">
         <v>1039</v>
@@ -4687,6 +7393,30 @@
       </c>
       <c r="I113" s="1">
         <v>77</v>
+      </c>
+      <c r="J113" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="K113" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="L113" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="M113" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1928</v>
+      </c>
+      <c r="N113" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="O113" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>825</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="15">
@@ -4697,7 +7427,7 @@
         <v>2024</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D114" s="1">
         <v>965</v>
@@ -4716,6 +7446,30 @@
       </c>
       <c r="I114" s="1">
         <v>49</v>
+      </c>
+      <c r="J114" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+      <c r="K114" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1784</v>
+      </c>
+      <c r="L114" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>695</v>
+      </c>
+      <c r="M114" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="N114" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>827</v>
+      </c>
+      <c r="O114" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>746</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="15">
@@ -4726,7 +7480,7 @@
         <v>2024</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1">
         <v>1037</v>
@@ -4745,6 +7499,30 @@
       </c>
       <c r="I115" s="1">
         <v>24</v>
+      </c>
+      <c r="J115" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1122</v>
+      </c>
+      <c r="K115" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1676</v>
+      </c>
+      <c r="L115" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>961</v>
+      </c>
+      <c r="M115" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="N115" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1172</v>
+      </c>
+      <c r="O115" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>631</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="15">
@@ -4755,7 +7533,7 @@
         <v>2024</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1">
         <v>1601</v>
@@ -4774,6 +7552,30 @@
       </c>
       <c r="I116" s="1">
         <v>43</v>
+      </c>
+      <c r="J116" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="K116" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1288</v>
+      </c>
+      <c r="L116" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+      <c r="M116" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="N116" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>702</v>
+      </c>
+      <c r="O116" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>918</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="15">
@@ -4784,7 +7586,7 @@
         <v>2024</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D117" s="1">
         <v>1506</v>
@@ -4803,6 +7605,30 @@
       </c>
       <c r="I117" s="1">
         <v>35</v>
+      </c>
+      <c r="J117" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1929</v>
+      </c>
+      <c r="K117" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="L117" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1468</v>
+      </c>
+      <c r="M117" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1714</v>
+      </c>
+      <c r="N117" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1799</v>
+      </c>
+      <c r="O117" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1938</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="15">
@@ -4813,7 +7639,7 @@
         <v>2024</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D118" s="1">
         <v>1452</v>
@@ -4832,6 +7658,30 @@
       </c>
       <c r="I118" s="1">
         <v>54</v>
+      </c>
+      <c r="J118" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="K118" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>1657</v>
+      </c>
+      <c r="L118" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="M118" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="N118" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1061</v>
+      </c>
+      <c r="O118" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1201</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="15">
@@ -4842,7 +7692,7 @@
         <v>2024</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D119" s="1">
         <v>1244</v>
@@ -4861,6 +7711,30 @@
       </c>
       <c r="I119" s="1">
         <v>54</v>
+      </c>
+      <c r="J119" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1163</v>
+      </c>
+      <c r="K119" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>673</v>
+      </c>
+      <c r="L119" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="M119" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="N119" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="O119" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>1591</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" ht="15">
@@ -4871,7 +7745,7 @@
         <v>2024</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D120" s="1">
         <v>939</v>
@@ -4890,6 +7764,30 @@
       </c>
       <c r="I120" s="1">
         <v>91</v>
+      </c>
+      <c r="J120" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="K120" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>970</v>
+      </c>
+      <c r="L120" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="M120" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>935</v>
+      </c>
+      <c r="N120" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>604</v>
+      </c>
+      <c r="O120" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>990</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="15">
@@ -4900,7 +7798,7 @@
         <v>2024</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D121" s="1">
         <v>823</v>
@@ -4919,6 +7817,30 @@
       </c>
       <c r="I121" s="1">
         <v>54</v>
+      </c>
+      <c r="J121" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>1234</v>
+      </c>
+      <c r="K121" s="1">
+        <f ca="1" t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="L121" s="1">
+        <f ca="1" t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="M121" s="1">
+        <f ca="1" t="shared" si="2"/>
+        <v>1067</v>
+      </c>
+      <c r="N121" s="1">
+        <f ca="1" t="shared" si="3"/>
+        <v>1506</v>
+      </c>
+      <c r="O121" s="1">
+        <f ca="1" t="shared" si="4"/>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
